--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_MinhDoan_Week33.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_MinhDoan_Week33.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -48,25 +48,37 @@
     <t>Mentor Meeting</t>
   </si>
   <si>
-    <t>Training Technical</t>
+    <t>WEEK: 33</t>
   </si>
   <si>
-    <t>Create unit test for "News" function</t>
+    <t>Test release 1</t>
   </si>
   <si>
-    <t>13/3/2017</t>
+    <t>Report test release 1</t>
   </si>
   <si>
-    <t>14/3/2017</t>
+    <t>Modify "Architecture and design" document-static view level 1</t>
   </si>
   <si>
-    <t>17/3/2017</t>
+    <t>Modify "Detail design" document</t>
   </si>
   <si>
-    <t>18/3/2017</t>
+    <t>15/5/2017</t>
   </si>
   <si>
-    <t>WEEK: 24</t>
+    <t>16/5/2017</t>
+  </si>
+  <si>
+    <t>17/5/2017</t>
+  </si>
+  <si>
+    <t>19/5/2017</t>
+  </si>
+  <si>
+    <t>18/5/2017</t>
+  </si>
+  <si>
+    <t>20/5/2017</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,14 +532,14 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
@@ -571,7 +583,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -677,11 +689,11 @@
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -716,19 +728,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -757,19 +769,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -798,19 +810,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H8" s="10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -835,12 +847,24 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -864,12 +888,24 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
